--- a/UniversityLocation.xlsx
+++ b/UniversityLocation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="413" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="412" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="226">
   <si>
     <t>地区</t>
   </si>
@@ -469,6 +469,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -477,6 +478,7 @@
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">宏福校区</t>
     </r>
@@ -485,6 +487,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -498,6 +501,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -506,6 +510,7 @@
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">北京</t>
     </r>
@@ -514,6 +519,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -542,6 +548,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -550,6 +557,7 @@
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">北京</t>
     </r>
@@ -558,15 +566,13 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
   </si>
   <si>
     <t>东北石油大学</t>
-  </si>
-  <si>
-    <t>武汉</t>
   </si>
   <si>
     <r>
@@ -577,6 +583,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -585,6 +592,7 @@
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">武汉</t>
     </r>
@@ -593,6 +601,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -609,6 +618,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -617,6 +627,7 @@
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">保定</t>
     </r>
@@ -625,6 +636,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -644,6 +656,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -652,6 +665,7 @@
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">北京</t>
     </r>
@@ -660,6 +674,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -676,6 +691,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -684,6 +700,7 @@
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">华东</t>
     </r>
@@ -692,6 +709,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -708,6 +726,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -716,6 +735,7 @@
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">北京</t>
     </r>
@@ -724,6 +744,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -746,6 +767,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -754,6 +776,7 @@
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">威海</t>
     </r>
@@ -762,6 +785,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -775,6 +799,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -783,6 +808,7 @@
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">沙河校区</t>
     </r>
@@ -791,6 +817,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -876,6 +903,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -884,6 +912,7 @@
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">宣城校区</t>
     </r>
@@ -892,6 +921,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -908,6 +938,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -916,6 +947,7 @@
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">荣昌校区</t>
     </r>
@@ -924,12 +956,349 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
   </si>
   <si>
-    <t>东北</t>
+    <t>东北财经大学(中外合作办学专业)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">东北大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">中外合作办学专业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">中国人民大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">苏州校区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t>广东医学院</t>
+  </si>
+  <si>
+    <t>广东工业大学</t>
+  </si>
+  <si>
+    <t>深圳大学</t>
+  </si>
+  <si>
+    <t>广州大学</t>
+  </si>
+  <si>
+    <t>复旦大学医学院</t>
+  </si>
+  <si>
+    <t>大连理工大学盘锦校区</t>
+  </si>
+  <si>
+    <t>广东外语外语大学</t>
+  </si>
+  <si>
+    <t>广州医科大学</t>
+  </si>
+  <si>
+    <t>温州医科大学</t>
+  </si>
+  <si>
+    <t>南京师范大学</t>
+  </si>
+  <si>
+    <t>江西财经大学</t>
+  </si>
+  <si>
+    <t>浙江理工大学</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">厦门大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">中外合作办学专业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">西南政法大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">中外合作办学专业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">汕头大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">汕头大学医学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">大连理工大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">盘锦校区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t>北京师范大学</t>
+  </si>
+  <si>
+    <t>新疆医科大学</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">西南财经大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">中外合作办学专业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">中国传媒大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">中外合作办学专业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t>北京电影学院</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">华南师范大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">中外合作办学专业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t>浙江大学医学院</t>
   </si>
   <si>
     <r>
@@ -940,6 +1309,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -948,6 +1318,7 @@
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">中外合作办学专业</t>
     </r>
@@ -956,345 +1327,10 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">东北大学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">中外合作办学专业</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t>苏州</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">中国人民大学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">苏州校区</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t>广东医学院</t>
-  </si>
-  <si>
-    <t>广东工业大学</t>
-  </si>
-  <si>
-    <t>深圳大学</t>
-  </si>
-  <si>
-    <t>广州大学</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">江苏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">北京</t>
-    </r>
-  </si>
-  <si>
-    <t>复旦</t>
-  </si>
-  <si>
-    <t>复旦大学医学院</t>
-  </si>
-  <si>
-    <t>大连理工大学盘锦校区</t>
-  </si>
-  <si>
-    <t>广东外语外语大学</t>
-  </si>
-  <si>
-    <t>广州医科大学</t>
-  </si>
-  <si>
-    <t>温州医科大学</t>
-  </si>
-  <si>
-    <t>南京师范大学</t>
-  </si>
-  <si>
-    <t>江西财经大学</t>
-  </si>
-  <si>
-    <t>浙江理工大学</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">厦门大学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">中外合作办学专业</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">西南政法大学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">中外合作办学专业</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">汕头大学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">汕头大学医学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">大连理工大学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">盘锦校区</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t>北京师范大学</t>
-  </si>
-  <si>
-    <t>新疆医科大学</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">西南财经大学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">中外合作办学专业</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">中国传媒大学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">中外合作办学专业</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t>北京电影学院</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">华南师范大学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">中外合作办学专业</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t>浙江大学医学院</t>
   </si>
 </sst>
 </file>
@@ -1309,6 +1345,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1329,6 +1366,7 @@
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1416,15 +1454,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1588"/>
+  <dimension ref="A1:B1597"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1462" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1462" activeCellId="0" sqref="A1462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1483,7 +1523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1507,7 +1547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -2523,7 +2563,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>99</v>
       </c>
@@ -3125,10 +3165,10 @@
     </row>
     <row r="213" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3136,15 +3176,15 @@
         <v>50</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3152,7 +3192,7 @@
         <v>89</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3160,7 +3200,7 @@
         <v>58</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3168,7 +3208,7 @@
         <v>53</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3176,7 +3216,7 @@
         <v>53</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3184,7 +3224,7 @@
         <v>15</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3192,7 +3232,7 @@
         <v>15</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3200,7 +3240,7 @@
         <v>89</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3208,7 +3248,7 @@
         <v>53</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3216,7 +3256,7 @@
         <v>133</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3224,7 +3264,7 @@
         <v>15</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3232,7 +3272,7 @@
         <v>15</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3240,7 +3280,7 @@
         <v>15</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3248,7 +3288,7 @@
         <v>89</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3256,7 +3296,7 @@
         <v>133</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3264,7 +3304,7 @@
         <v>15</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3272,7 +3312,7 @@
         <v>89</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,7 +3328,7 @@
         <v>2</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3296,7 +3336,7 @@
         <v>2</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4776,7 +4816,7 @@
         <v>133</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4920,7 +4960,7 @@
         <v>15</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4952,7 +4992,7 @@
         <v>53</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4960,7 +5000,7 @@
         <v>53</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4976,7 +5016,7 @@
         <v>89</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4984,7 +5024,7 @@
         <v>143</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5016,7 +5056,7 @@
         <v>89</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5024,7 +5064,7 @@
         <v>15</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5048,7 +5088,7 @@
         <v>15</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5056,7 +5096,7 @@
         <v>58</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5064,7 +5104,7 @@
         <v>53</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5072,7 +5112,7 @@
         <v>50</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5080,7 +5120,7 @@
         <v>89</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5088,7 +5128,7 @@
         <v>53</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5096,7 +5136,7 @@
         <v>89</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5104,7 +5144,7 @@
         <v>39</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5112,7 +5152,7 @@
         <v>15</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5120,7 +5160,7 @@
         <v>53</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5128,7 +5168,7 @@
         <v>2</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5136,7 +5176,7 @@
         <v>133</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5144,7 +5184,7 @@
         <v>15</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5160,7 +5200,7 @@
         <v>15</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5168,7 +5208,7 @@
         <v>133</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5176,7 +5216,7 @@
         <v>2</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5192,7 +5232,7 @@
         <v>2</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5224,7 +5264,7 @@
         <v>2</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5304,7 +5344,7 @@
         <v>2</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5664,7 +5704,7 @@
         <v>35</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5712,7 +5752,7 @@
         <v>39</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5832,7 +5872,7 @@
         <v>50</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5840,7 +5880,7 @@
         <v>50</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5856,7 +5896,7 @@
         <v>53</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5896,7 +5936,7 @@
         <v>56</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6085,18 +6125,18 @@
     </row>
     <row r="583" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B583" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B583" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B584" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B584" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6112,7 +6152,7 @@
         <v>72</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6296,7 +6336,7 @@
         <v>87</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6304,7 +6344,7 @@
         <v>87</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6328,7 +6368,7 @@
         <v>89</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6352,7 +6392,7 @@
         <v>89</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6368,7 +6408,7 @@
         <v>92</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6504,7 +6544,7 @@
         <v>99</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6544,7 +6584,7 @@
         <v>106</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6568,7 +6608,7 @@
         <v>106</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6584,7 +6624,7 @@
         <v>106</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6600,7 +6640,7 @@
         <v>106</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6608,7 +6648,7 @@
         <v>106</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6712,7 +6752,7 @@
         <v>114</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6912,7 +6952,7 @@
         <v>133</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6984,7 +7024,7 @@
         <v>133</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7016,7 +7056,7 @@
         <v>133</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7088,7 +7128,7 @@
         <v>143</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7096,7 +7136,7 @@
         <v>143</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7112,7 +7152,7 @@
         <v>143</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7128,7 +7168,7 @@
         <v>15</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7136,7 +7176,7 @@
         <v>15</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7144,7 +7184,7 @@
         <v>50</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7160,7 +7200,7 @@
         <v>58</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7192,7 +7232,7 @@
         <v>129</v>
       </c>
       <c r="B721" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7221,18 +7261,18 @@
     </row>
     <row r="725" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B725" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B725" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B726" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B726" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7240,7 +7280,7 @@
         <v>15</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7248,7 +7288,7 @@
         <v>53</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7272,7 +7312,7 @@
         <v>15</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7280,7 +7320,7 @@
         <v>15</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7304,7 +7344,7 @@
         <v>53</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7320,7 +7360,7 @@
         <v>53</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7328,7 +7368,7 @@
         <v>15</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7336,7 +7376,7 @@
         <v>50</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7344,7 +7384,7 @@
         <v>39</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7352,7 +7392,7 @@
         <v>89</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7360,7 +7400,7 @@
         <v>89</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7368,7 +7408,7 @@
         <v>58</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7376,7 +7416,7 @@
         <v>53</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7384,7 +7424,7 @@
         <v>2</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7392,31 +7432,31 @@
         <v>133</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="1" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B748" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="B748" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="1" t="s">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7424,7 +7464,7 @@
         <v>58</v>
       </c>
       <c r="B750" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7432,15 +7472,15 @@
         <v>133</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="1" t="s">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="B752" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7480,7 +7520,7 @@
         <v>2</v>
       </c>
       <c r="B757" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7584,7 +7624,7 @@
         <v>2</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8048,7 +8088,7 @@
         <v>50</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8112,7 +8152,7 @@
         <v>58</v>
       </c>
       <c r="B836" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8168,7 +8208,7 @@
         <v>58</v>
       </c>
       <c r="B843" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8240,7 +8280,7 @@
         <v>58</v>
       </c>
       <c r="B852" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8277,10 +8317,10 @@
     </row>
     <row r="857" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B857" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B857" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8403,7 +8443,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="873" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="1" t="s">
         <v>72</v>
       </c>
@@ -8480,7 +8520,7 @@
         <v>89</v>
       </c>
       <c r="B882" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8984,7 +9024,7 @@
         <v>133</v>
       </c>
       <c r="B945" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9040,7 +9080,7 @@
         <v>133</v>
       </c>
       <c r="B952" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9048,7 +9088,7 @@
         <v>133</v>
       </c>
       <c r="B953" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9072,7 +9112,7 @@
         <v>143</v>
       </c>
       <c r="B956" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9088,7 +9128,7 @@
         <v>143</v>
       </c>
       <c r="B958" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9139,17 +9179,17 @@
         <v>156</v>
       </c>
     </row>
-    <row r="965" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="1" t="s">
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="B965" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="966" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="1" t="s">
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="B966" s="1" t="s">
         <v>75</v>
@@ -9160,7 +9200,7 @@
         <v>15</v>
       </c>
       <c r="B967" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9168,7 +9208,7 @@
         <v>15</v>
       </c>
       <c r="B968" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9176,15 +9216,15 @@
         <v>50</v>
       </c>
       <c r="B969" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="1" t="s">
-        <v>210</v>
+        <v>2</v>
       </c>
       <c r="B970" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9192,7 +9232,7 @@
         <v>120</v>
       </c>
       <c r="B971" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9208,7 +9248,7 @@
         <v>58</v>
       </c>
       <c r="B973" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9224,7 +9264,7 @@
         <v>53</v>
       </c>
       <c r="B975" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9248,7 +9288,7 @@
         <v>58</v>
       </c>
       <c r="B978" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9269,18 +9309,18 @@
     </row>
     <row r="981" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B981" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B981" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B982" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B982" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9288,7 +9328,7 @@
         <v>58</v>
       </c>
       <c r="B983" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9296,7 +9336,7 @@
         <v>89</v>
       </c>
       <c r="B984" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9304,7 +9344,7 @@
         <v>89</v>
       </c>
       <c r="B985" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9312,7 +9352,7 @@
         <v>15</v>
       </c>
       <c r="B986" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9320,7 +9360,7 @@
         <v>53</v>
       </c>
       <c r="B987" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9328,7 +9368,7 @@
         <v>58</v>
       </c>
       <c r="B988" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9344,7 +9384,7 @@
         <v>53</v>
       </c>
       <c r="B990" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9368,7 +9408,7 @@
         <v>39</v>
       </c>
       <c r="B993" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9376,7 +9416,7 @@
         <v>15</v>
       </c>
       <c r="B994" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9384,7 +9424,7 @@
         <v>15</v>
       </c>
       <c r="B995" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9392,7 +9432,7 @@
         <v>53</v>
       </c>
       <c r="B996" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9408,7 +9448,7 @@
         <v>2</v>
       </c>
       <c r="B998" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9416,7 +9456,7 @@
         <v>94</v>
       </c>
       <c r="B999" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9424,23 +9464,23 @@
         <v>50</v>
       </c>
       <c r="B1000" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="1" t="s">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="B1001" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="1" t="s">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="B1002" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9464,7 +9504,7 @@
         <v>2</v>
       </c>
       <c r="B1005" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9528,7 +9568,7 @@
         <v>2</v>
       </c>
       <c r="B1013" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9552,7 +9592,7 @@
         <v>2</v>
       </c>
       <c r="B1016" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9584,7 +9624,7 @@
         <v>2</v>
       </c>
       <c r="B1020" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9592,7 +9632,7 @@
         <v>2</v>
       </c>
       <c r="B1021" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9616,7 +9656,7 @@
         <v>2</v>
       </c>
       <c r="B1024" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10064,7 +10104,7 @@
         <v>50</v>
       </c>
       <c r="B1080" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="1081" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10080,7 +10120,7 @@
         <v>50</v>
       </c>
       <c r="B1082" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="1083" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10184,7 +10224,7 @@
         <v>58</v>
       </c>
       <c r="B1095" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="1096" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10208,7 +10248,7 @@
         <v>58</v>
       </c>
       <c r="B1098" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="1099" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10216,7 +10256,7 @@
         <v>58</v>
       </c>
       <c r="B1099" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="1100" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10232,7 +10272,7 @@
         <v>58</v>
       </c>
       <c r="B1101" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1102" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10264,7 +10304,7 @@
         <v>58</v>
       </c>
       <c r="B1105" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="1106" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10288,7 +10328,7 @@
         <v>58</v>
       </c>
       <c r="B1108" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1109" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10328,7 +10368,7 @@
         <v>58</v>
       </c>
       <c r="B1113" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1114" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10336,7 +10376,7 @@
         <v>58</v>
       </c>
       <c r="B1114" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1115" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10373,10 +10413,10 @@
     </row>
     <row r="1119" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1119" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1119" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B1119" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="1120" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10448,7 +10488,7 @@
         <v>72</v>
       </c>
       <c r="B1128" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="1129" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10568,7 +10608,7 @@
         <v>87</v>
       </c>
       <c r="B1143" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1144" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10576,7 +10616,7 @@
         <v>87</v>
       </c>
       <c r="B1144" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1145" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10608,7 +10648,7 @@
         <v>89</v>
       </c>
       <c r="B1148" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="1149" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10656,7 +10696,7 @@
         <v>94</v>
       </c>
       <c r="B1154" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="1155" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10664,7 +10704,7 @@
         <v>94</v>
       </c>
       <c r="B1155" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1156" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10672,7 +10712,7 @@
         <v>94</v>
       </c>
       <c r="B1156" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="1157" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10784,7 +10824,7 @@
         <v>99</v>
       </c>
       <c r="B1170" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="1171" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10800,7 +10840,7 @@
         <v>106</v>
       </c>
       <c r="B1172" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="1173" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10816,7 +10856,7 @@
         <v>106</v>
       </c>
       <c r="B1174" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="1175" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10856,7 +10896,7 @@
         <v>106</v>
       </c>
       <c r="B1179" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="1180" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10864,7 +10904,7 @@
         <v>106</v>
       </c>
       <c r="B1180" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="1181" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11144,7 +11184,7 @@
         <v>133</v>
       </c>
       <c r="B1215" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="1216" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11264,7 +11304,7 @@
         <v>143</v>
       </c>
       <c r="B1230" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="1231" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11288,7 +11328,7 @@
         <v>143</v>
       </c>
       <c r="B1233" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="1234" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11315,17 +11355,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="1237" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1237" s="1" t="s">
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="B1237" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="1238" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1238" s="1" t="s">
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="B1238" s="1" t="s">
         <v>75</v>
@@ -11336,7 +11376,7 @@
         <v>15</v>
       </c>
       <c r="B1239" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="1240" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11344,7 +11384,7 @@
         <v>15</v>
       </c>
       <c r="B1240" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="1241" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11352,7 +11392,7 @@
         <v>50</v>
       </c>
       <c r="B1241" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="1242" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11360,7 +11400,7 @@
         <v>2</v>
       </c>
       <c r="B1242" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="1243" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11397,10 +11437,10 @@
     </row>
     <row r="1247" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1247" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B1247" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="1248" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11408,7 +11448,7 @@
         <v>89</v>
       </c>
       <c r="B1248" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="1249" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11416,7 +11456,7 @@
         <v>89</v>
       </c>
       <c r="B1249" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="1250" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11424,7 +11464,7 @@
         <v>114</v>
       </c>
       <c r="B1250" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1251" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11448,7 +11488,7 @@
         <v>15</v>
       </c>
       <c r="B1253" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="1254" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11456,7 +11496,7 @@
         <v>129</v>
       </c>
       <c r="B1254" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="1255" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11464,7 +11504,7 @@
         <v>129</v>
       </c>
       <c r="B1255" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="1256" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11480,7 +11520,7 @@
         <v>2</v>
       </c>
       <c r="B1257" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="1258" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11488,7 +11528,7 @@
         <v>53</v>
       </c>
       <c r="B1258" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="1259" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11496,7 +11536,7 @@
         <v>53</v>
       </c>
       <c r="B1259" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="1260" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11512,7 +11552,7 @@
         <v>53</v>
       </c>
       <c r="B1261" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="1262" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11520,15 +11560,15 @@
         <v>39</v>
       </c>
       <c r="B1262" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="1263" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1263" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B1263" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="1264" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11536,7 +11576,7 @@
         <v>15</v>
       </c>
       <c r="B1264" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="1265" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11544,7 +11584,7 @@
         <v>114</v>
       </c>
       <c r="B1265" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1266" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11552,7 +11592,7 @@
         <v>58</v>
       </c>
       <c r="B1266" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="1267" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11560,7 +11600,7 @@
         <v>15</v>
       </c>
       <c r="B1267" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="1268" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11584,7 +11624,7 @@
         <v>53</v>
       </c>
       <c r="B1270" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="1271" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11592,7 +11632,7 @@
         <v>120</v>
       </c>
       <c r="B1271" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="1272" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11600,7 +11640,7 @@
         <v>133</v>
       </c>
       <c r="B1272" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="1273" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11608,23 +11648,23 @@
         <v>133</v>
       </c>
       <c r="B1273" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="1274" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1274" s="1" t="s">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="B1274" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="1275" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1275" s="1" t="s">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="B1275" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="1276" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11680,7 +11720,7 @@
         <v>2</v>
       </c>
       <c r="B1282" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="1283" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11688,7 +11728,7 @@
         <v>2</v>
       </c>
       <c r="B1283" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1284" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11712,7 +11752,7 @@
         <v>2</v>
       </c>
       <c r="B1286" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="1287" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11736,7 +11776,7 @@
         <v>2</v>
       </c>
       <c r="B1289" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1290" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11744,7 +11784,7 @@
         <v>2</v>
       </c>
       <c r="B1290" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="1291" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11776,7 +11816,7 @@
         <v>2</v>
       </c>
       <c r="B1294" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="1295" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11800,7 +11840,7 @@
         <v>15</v>
       </c>
       <c r="B1297" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="1298" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11848,7 +11888,7 @@
         <v>15</v>
       </c>
       <c r="B1303" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="1304" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12096,7 +12136,7 @@
         <v>35</v>
       </c>
       <c r="B1334" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="1335" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12136,7 +12176,7 @@
         <v>39</v>
       </c>
       <c r="B1339" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="1340" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12176,7 +12216,7 @@
         <v>39</v>
       </c>
       <c r="B1344" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="1345" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12256,7 +12296,7 @@
         <v>50</v>
       </c>
       <c r="B1354" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="1355" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12264,7 +12304,7 @@
         <v>50</v>
       </c>
       <c r="B1355" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="1356" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12312,7 +12352,7 @@
         <v>53</v>
       </c>
       <c r="B1361" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="1362" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12336,7 +12376,7 @@
         <v>56</v>
       </c>
       <c r="B1364" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="1365" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12344,7 +12384,7 @@
         <v>56</v>
       </c>
       <c r="B1365" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="1366" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12360,7 +12400,7 @@
         <v>58</v>
       </c>
       <c r="B1367" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1368" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12384,7 +12424,7 @@
         <v>58</v>
       </c>
       <c r="B1370" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="1371" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12448,7 +12488,7 @@
         <v>58</v>
       </c>
       <c r="B1378" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1379" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12472,7 +12512,7 @@
         <v>58</v>
       </c>
       <c r="B1381" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="1382" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12480,7 +12520,7 @@
         <v>58</v>
       </c>
       <c r="B1382" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="1383" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12488,7 +12528,7 @@
         <v>58</v>
       </c>
       <c r="B1383" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1384" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12496,7 +12536,7 @@
         <v>58</v>
       </c>
       <c r="B1384" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1385" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12520,7 +12560,7 @@
         <v>58</v>
       </c>
       <c r="B1387" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="1388" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12573,18 +12613,18 @@
     </row>
     <row r="1394" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1394" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1394" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="1395" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1395" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1395" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B1395" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="1396" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12664,7 +12704,7 @@
         <v>72</v>
       </c>
       <c r="B1405" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="1406" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12720,7 +12760,7 @@
         <v>72</v>
       </c>
       <c r="B1412" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="1413" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12768,7 +12808,7 @@
         <v>72</v>
       </c>
       <c r="B1418" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="1419" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12808,7 +12848,7 @@
         <v>87</v>
       </c>
       <c r="B1423" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="1424" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12816,7 +12856,7 @@
         <v>87</v>
       </c>
       <c r="B1424" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1425" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12832,7 +12872,7 @@
         <v>87</v>
       </c>
       <c r="B1426" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="1427" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12840,7 +12880,7 @@
         <v>87</v>
       </c>
       <c r="B1427" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="1428" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12848,7 +12888,7 @@
         <v>87</v>
       </c>
       <c r="B1428" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1429" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12856,7 +12896,7 @@
         <v>89</v>
       </c>
       <c r="B1429" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="1430" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12904,7 +12944,7 @@
         <v>92</v>
       </c>
       <c r="B1435" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="1436" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12912,7 +12952,7 @@
         <v>92</v>
       </c>
       <c r="B1436" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="1437" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12928,7 +12968,7 @@
         <v>94</v>
       </c>
       <c r="B1438" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="1439" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12944,7 +12984,7 @@
         <v>94</v>
       </c>
       <c r="B1440" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="1441" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12952,7 +12992,7 @@
         <v>94</v>
       </c>
       <c r="B1441" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1442" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13000,7 +13040,7 @@
         <v>99</v>
       </c>
       <c r="B1447" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="1448" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13080,7 +13120,7 @@
         <v>106</v>
       </c>
       <c r="B1457" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="1458" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13104,7 +13144,7 @@
         <v>106</v>
       </c>
       <c r="B1460" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="1461" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13115,7 +13155,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="1462" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1462" s="1" t="s">
         <v>106</v>
       </c>
@@ -13128,7 +13168,7 @@
         <v>106</v>
       </c>
       <c r="B1463" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="1464" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13136,7 +13176,7 @@
         <v>106</v>
       </c>
       <c r="B1464" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="1465" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13144,7 +13184,7 @@
         <v>106</v>
       </c>
       <c r="B1465" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="1466" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13152,7 +13192,7 @@
         <v>106</v>
       </c>
       <c r="B1466" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="1467" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13176,7 +13216,7 @@
         <v>106</v>
       </c>
       <c r="B1469" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="1470" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13200,7 +13240,7 @@
         <v>106</v>
       </c>
       <c r="B1472" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="1473" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13208,7 +13248,7 @@
         <v>106</v>
       </c>
       <c r="B1473" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="1474" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13232,7 +13272,7 @@
         <v>114</v>
       </c>
       <c r="B1476" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="1477" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13256,7 +13296,7 @@
         <v>114</v>
       </c>
       <c r="B1479" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="1480" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13472,7 +13512,7 @@
         <v>133</v>
       </c>
       <c r="B1506" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="1507" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13576,7 +13616,7 @@
         <v>143</v>
       </c>
       <c r="B1519" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="1520" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13584,7 +13624,7 @@
         <v>143</v>
       </c>
       <c r="B1520" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="1521" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13616,7 +13656,7 @@
         <v>143</v>
       </c>
       <c r="B1524" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="1525" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13632,7 +13672,7 @@
         <v>143</v>
       </c>
       <c r="B1526" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="1527" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13648,7 +13688,7 @@
         <v>143</v>
       </c>
       <c r="B1528" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="1529" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13664,7 +13704,7 @@
         <v>15</v>
       </c>
       <c r="B1530" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="1531" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13672,7 +13712,7 @@
         <v>15</v>
       </c>
       <c r="B1531" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="1532" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13680,7 +13720,7 @@
         <v>39</v>
       </c>
       <c r="B1532" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1533" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13696,7 +13736,7 @@
         <v>50</v>
       </c>
       <c r="B1534" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="1535" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13704,7 +13744,7 @@
         <v>129</v>
       </c>
       <c r="B1535" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="1536" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13712,7 +13752,7 @@
         <v>129</v>
       </c>
       <c r="B1536" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="1537" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13736,7 +13776,7 @@
         <v>58</v>
       </c>
       <c r="B1539" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="1540" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13744,7 +13784,7 @@
         <v>58</v>
       </c>
       <c r="B1540" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="1541" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13752,7 +13792,7 @@
         <v>2</v>
       </c>
       <c r="B1541" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="1542" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13808,23 +13848,23 @@
         <v>58</v>
       </c>
       <c r="B1548" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="1549" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1549" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1549" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B1549" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="1550" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1550" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1550" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B1550" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="1551" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13832,7 +13872,7 @@
         <v>89</v>
       </c>
       <c r="B1551" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="1552" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13840,7 +13880,7 @@
         <v>89</v>
       </c>
       <c r="B1552" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="1553" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13856,7 +13896,7 @@
         <v>114</v>
       </c>
       <c r="B1554" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1555" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13880,7 +13920,7 @@
         <v>39</v>
       </c>
       <c r="B1557" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="1558" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13888,7 +13928,7 @@
         <v>39</v>
       </c>
       <c r="B1558" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="1559" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13896,7 +13936,7 @@
         <v>15</v>
       </c>
       <c r="B1559" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="1560" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13904,7 +13944,7 @@
         <v>15</v>
       </c>
       <c r="B1560" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="1561" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13912,7 +13952,7 @@
         <v>15</v>
       </c>
       <c r="B1561" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="1562" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13920,7 +13960,7 @@
         <v>58</v>
       </c>
       <c r="B1562" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="1563" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13928,7 +13968,7 @@
         <v>58</v>
       </c>
       <c r="B1563" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="1564" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13936,7 +13976,7 @@
         <v>94</v>
       </c>
       <c r="B1564" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="1565" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13944,7 +13984,7 @@
         <v>39</v>
       </c>
       <c r="B1565" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1566" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13960,7 +14000,7 @@
         <v>120</v>
       </c>
       <c r="B1567" s="1" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="1568" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13968,7 +14008,7 @@
         <v>120</v>
       </c>
       <c r="B1568" s="1" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="1569" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13976,7 +14016,7 @@
         <v>15</v>
       </c>
       <c r="B1569" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="1570" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13984,7 +14024,7 @@
         <v>53</v>
       </c>
       <c r="B1570" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="1571" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13992,7 +14032,7 @@
         <v>39</v>
       </c>
       <c r="B1571" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="1572" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14000,7 +14040,7 @@
         <v>53</v>
       </c>
       <c r="B1572" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="1573" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14008,23 +14048,23 @@
         <v>53</v>
       </c>
       <c r="B1573" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="1574" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1574" s="1" t="s">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="B1574" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="1575" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1575" s="1" t="s">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="B1575" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="1576" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14032,7 +14072,7 @@
         <v>53</v>
       </c>
       <c r="B1576" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="1577" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14056,7 +14096,7 @@
         <v>15</v>
       </c>
       <c r="B1579" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="1580" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14080,7 +14120,7 @@
         <v>120</v>
       </c>
       <c r="B1582" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="1583" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14088,7 +14128,7 @@
         <v>2</v>
       </c>
       <c r="B1583" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="1584" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14096,7 +14136,7 @@
         <v>15</v>
       </c>
       <c r="B1584" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="1585" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14104,7 +14144,7 @@
         <v>133</v>
       </c>
       <c r="B1585" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="1586" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14112,7 +14152,7 @@
         <v>120</v>
       </c>
       <c r="B1586" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1587" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14120,7 +14160,7 @@
         <v>114</v>
       </c>
       <c r="B1587" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1588" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14128,9 +14168,10 @@
         <v>133</v>
       </c>
       <c r="B1588" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/UniversityLocation.xlsx
+++ b/UniversityLocation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xuhao.du.UWA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xuhao.du.UWA\Peter Du\University entrance exam\Chinese_University_Entrance_Ranking_GD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1680,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1588"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1462" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A1462" sqref="A1462"/>
+    <sheetView tabSelected="1" topLeftCell="A1560" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B1584" sqref="B1584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5277,7 +5277,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="1" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>166</v>

--- a/UniversityLocation.xlsx
+++ b/UniversityLocation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="231">
   <si>
     <t>地区</t>
   </si>
@@ -1302,9 +1302,6 @@
     </r>
   </si>
   <si>
-    <t>浙江大学医学院</t>
-  </si>
-  <si>
     <r>
       <t>东北财经大学</t>
     </r>
@@ -1335,6 +1332,24 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>汕头大学（汕头大学医）</t>
+  </si>
+  <si>
+    <t>汕头大学（汕头大学医学）</t>
+  </si>
+  <si>
+    <t>上海交通大学医学</t>
+  </si>
+  <si>
+    <t>上海交通大学医</t>
+  </si>
+  <si>
+    <t>复旦大学医学</t>
+  </si>
+  <si>
+    <t>浙江大学医学</t>
   </si>
 </sst>
 </file>
@@ -1680,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1588"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1560" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1584" sqref="B1584"/>
+    <sheetView tabSelected="1" topLeftCell="A1554" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B1564" sqref="B1564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5181,7 +5196,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>157</v>
@@ -5317,7 +5332,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="1" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>157</v>
@@ -5325,10 +5340,10 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>160</v>
+        <v>225</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -5392,7 +5407,7 @@
         <v>2</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -7632,7 +7647,7 @@
         <v>58</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -7648,7 +7663,7 @@
         <v>2</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -9672,7 +9687,7 @@
         <v>2</v>
       </c>
       <c r="B998" s="1" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -11624,7 +11639,7 @@
         <v>2</v>
       </c>
       <c r="B1242" s="1" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
@@ -14200,7 +14215,7 @@
         <v>94</v>
       </c>
       <c r="B1564" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="1565" spans="1:2">
@@ -14224,7 +14239,7 @@
         <v>120</v>
       </c>
       <c r="B1567" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="1568" spans="1:2">
@@ -14232,7 +14247,7 @@
         <v>120</v>
       </c>
       <c r="B1568" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="1569" spans="1:2">
